--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -11,7 +11,7 @@
     <sheet name="例" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">例!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>ゲーム作品名</t>
     <rPh sb="3" eb="5">
@@ -653,31 +653,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近接・剣、遠距離、ビーム</t>
-    <rPh sb="0" eb="2">
-      <t>キンセツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>エンキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ノーガード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ビーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回復アイテム</t>
-    <rPh sb="0" eb="2">
-      <t>カイフク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -688,10 +668,6 @@
     <rPh sb="2" eb="4">
       <t>ダゲキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ワイト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -726,13 +702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残機制</t>
-    <rPh sb="0" eb="3">
-      <t>ザンキセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目的地への到達</t>
     <rPh sb="0" eb="3">
       <t>モクテキチ</t>
@@ -753,25 +722,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用するボタン</t>
+    <t>回復ビン、魔力ビン(遠距離攻撃用)</t>
     <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近接攻撃、遠距離攻撃、ジャンプ、移動４キー、決定、キャンセル、エスケープ</t>
-    <rPh sb="0" eb="4">
-      <t>キンセツコウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="10">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マリョク</t>
+    </rPh>
+    <rPh sb="10" eb="15">
       <t>エンキョリコウゲキ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ケッテイ</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケルトン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接・剣、遠距離・ビーム</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残機制　残機0でガメオベラ</t>
+    <rPh sb="0" eb="3">
+      <t>ザンキセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1408,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1543,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -1552,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -1561,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1574,10 +1563,10 @@
         <v>50</v>
       </c>
       <c r="B21" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1593,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -1602,101 +1591,102 @@
         <v>12</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C26" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="10.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="27" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="10.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C38" s="31" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1711,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
-    <sheet name="例" sheetId="2" r:id="rId2"/>
+    <sheet name="実装案" sheetId="3" r:id="rId2"/>
+    <sheet name="例" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">例!$A$1:$C$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">例!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
   <si>
     <t>ゲーム作品名</t>
     <rPh sb="3" eb="5">
@@ -661,16 +662,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近接打撃</t>
-    <rPh sb="0" eb="2">
-      <t>キンセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ワイトキング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -738,10 +729,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケルトン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>近接・剣、遠距離・ビーム</t>
     <rPh sb="0" eb="2">
       <t>キンセツ</t>
@@ -762,6 +749,413 @@
     <rPh sb="4" eb="6">
       <t>ザンキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装案・操作編</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウアン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動　上</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動　左</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動　右</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動　下</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容(数値、注意事項など)</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>操作ジャンル</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーキャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーキャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーキャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーキャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上キー</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左キー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右キー</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下キー</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>キンセツコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三段攻撃　最終段は範囲が広く、吹っ飛ばし属性がある</t>
+    <rPh sb="0" eb="4">
+      <t>サンダンコウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイシュウダン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーキャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離攻撃</t>
+    <rPh sb="0" eb="5">
+      <t>エンキョリコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲージ25％消費　火力が低いが敵の動きを阻害する</t>
+    <rPh sb="6" eb="8">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>カリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーキャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲージ50％消費　敵を強く吹っ飛ばす　無敵有</t>
+    <rPh sb="6" eb="8">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ中攻撃派生あり</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケルトン、ゴースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接打撃、遠距離攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>エンキョリコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラスボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンターキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル上</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル下</t>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル、戻る</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -809,7 +1203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1018,11 +1412,298 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1116,12 +1797,133 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1132,6 +1934,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B4:F38" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="B4:F38"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="5" name="ジャンル"/>
+    <tableColumn id="3" name="列3" dataDxfId="0"/>
+    <tableColumn id="4" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1399,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1532,7 +2348,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -1563,10 +2379,10 @@
         <v>50</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1582,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -1591,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -1605,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -1614,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="10.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1627,9 +2443,11 @@
         <v>14</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
@@ -1642,7 +2460,7 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1656,7 +2474,7 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -1670,7 +2488,7 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -1698,6 +2516,434 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="66.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="39.75" x14ac:dyDescent="0.8">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="44"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="44"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="46"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="44"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="47"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="44"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="45"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="44"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="44"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="44"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="46"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="44"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="47"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="44"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="48"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="44"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="48"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="44"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="48"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="44"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="49"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>

--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -8,12 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
-    <sheet name="実装案" sheetId="3" r:id="rId2"/>
-    <sheet name="例" sheetId="2" r:id="rId3"/>
+    <sheet name="敵キャラの仕様" sheetId="4" r:id="rId2"/>
+    <sheet name="使用キー" sheetId="3" r:id="rId3"/>
+    <sheet name="例" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">例!$A$1:$C$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">例!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>ゲーム作品名</t>
     <rPh sb="3" eb="5">
@@ -1156,6 +1157,143 @@
   </si>
   <si>
     <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイト(スケルトン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに近づく</t>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふっとばし攻撃</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を吹っ飛ばして穴に落としたり、間合いを広げたりして、難易度の低下と爽快感の向上を図る</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ソウカイカン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し下がる</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容(数値など)</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー座標に弾を発射</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面端を移動</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンハジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイトキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイト召喚</t>
+    <rPh sb="3" eb="5">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワープ移動</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ攻撃</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1203,7 +1341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1699,11 +1837,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1886,6 +2082,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2216,7 +2416,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2500,8 +2700,12 @@
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C38" s="31" t="s">
@@ -2517,9 +2721,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="62"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="62"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="63"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="64"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="62"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="63"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="64"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="62"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="63"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2943,7 +3252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>

--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
@@ -882,13 +882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>穴</t>
-    <rPh sb="0" eb="1">
-      <t>アナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上キー</t>
     <rPh sb="0" eb="1">
       <t>ウエ</t>
@@ -1293,6 +1286,16 @@
     <t>マップ攻撃</t>
     <rPh sb="3" eb="5">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴 高台</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タカダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2415,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2598,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -2607,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -2646,7 +2649,7 @@
         <v>61</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -2701,10 +2704,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -2723,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2735,85 +2738,85 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="64"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="62"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="62"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="63"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="64"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="62"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="63"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="64"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="62"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="63"/>
     </row>
@@ -2877,13 +2880,13 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>81</v>
@@ -2897,7 +2900,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>84</v>
@@ -2912,7 +2915,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>85</v>
@@ -2927,7 +2930,7 @@
         <v>73</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>86</v>
@@ -2942,7 +2945,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>87</v>
@@ -2954,144 +2957,144 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>94</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>97</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="51" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="D11" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="E11" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="F11" s="51" t="s">
         <v>103</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="D12" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="E12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="F12" s="52" t="s">
         <v>108</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="E13" s="39" t="s">
         <v>114</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>115</v>
       </c>
       <c r="F13" s="50"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>117</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>118</v>
       </c>
       <c r="F14" s="51"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>119</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>120</v>
       </c>
       <c r="F15" s="53"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="42" t="s">
+      <c r="E16" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>123</v>
       </c>
       <c r="F16" s="51"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="D17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="61" t="s">
         <v>125</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>126</v>
       </c>
       <c r="F17" s="52"/>
     </row>

--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
     <sheet name="敵キャラの仕様" sheetId="4" r:id="rId2"/>
     <sheet name="使用キー" sheetId="3" r:id="rId3"/>
-    <sheet name="例" sheetId="2" r:id="rId4"/>
+    <sheet name="イメージ画像" sheetId="5" r:id="rId4"/>
+    <sheet name="例" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">例!$A$1:$C$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">例!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2137,6 +2138,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10296524" cy="5791794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="3150839"/>
+          <a:ext cx="3419475" cy="2376245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2418,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2718,7 +2812,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.03" right="0.7" top="0.75" bottom="0.47" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="12" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="12" scale="97" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2726,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2831,7 +2925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -3248,7 +3342,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3257,9 +3351,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3538,6 +3649,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="12" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="12" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -14,6 +14,7 @@
     <sheet name="例" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">イメージ画像!$A$1:$O$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">例!$A$1:$C$33</definedName>
   </definedNames>
@@ -3353,7 +3354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -3361,7 +3362,10 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="28" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
     <sheet name="敵キャラの仕様" sheetId="4" r:id="rId2"/>
-    <sheet name="使用キー" sheetId="3" r:id="rId3"/>
-    <sheet name="イメージ画像" sheetId="5" r:id="rId4"/>
-    <sheet name="例" sheetId="2" r:id="rId5"/>
+    <sheet name="プレイヤーの仕様" sheetId="6" r:id="rId3"/>
+    <sheet name="使用キー" sheetId="3" r:id="rId4"/>
+    <sheet name="イメージ画像" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">イメージ画像!$A$1:$O$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">例!$A$1:$C$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">イメージ画像!$A$1:$O$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">敵キャラの仕様!$A$1:$D$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>ゲーム作品名</t>
     <rPh sb="3" eb="5">
@@ -180,73 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>江戸時代</t>
-    <rPh sb="0" eb="4">
-      <t>エドジダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大阪</t>
-    <rPh sb="0" eb="2">
-      <t>オオサカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体当たり</t>
-    <rPh sb="0" eb="2">
-      <t>タイア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金貸し</t>
-    <rPh sb="0" eb="2">
-      <t>カネカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネズミ、犬</t>
-    <rPh sb="4" eb="5">
-      <t>イヌ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16歳</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男(少年)</t>
-    <rPh sb="0" eb="1">
-      <t>オトコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大阪ゼニー</t>
-    <rPh sb="0" eb="2">
-      <t>オオサカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージクリア条件</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -258,23 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>そろばん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全10面(第１ステージはチュートリアルステージ)</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームクリア条件</t>
     <rPh sb="6" eb="8">
       <t>ジョウケン</t>
@@ -282,10 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すべてのステージをクリアすること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -293,16 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜企画例＞</t>
-    <rPh sb="1" eb="3">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コアユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -315,269 +217,6 @@
   </si>
   <si>
     <t>ベネフィット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>善良な市民で町内に落ちているゼニー(銭)をすべて役所に届ける</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シミン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ゼニ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヤクショ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各ステージ上に１つだけ落ちている回復薬を使って回復できる</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイム制を導入し、残時間により支払われる報酬が変わる（支払い時にアニメーションによる演出必要）</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ドウニュウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウシュウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定時間内に、各ステージに落ちているすべてのゼニーを役所に届ける
-※一度に運べるゼニーは、１枚のみ</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヤクショ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライフは４で開始し、敵やそろばんに当たるとライフ減少。
-ライフが０になるとゲームオーバー(失敗ステージより再開可能)</t>
-    <rPh sb="6" eb="8">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ゲンショウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>サイカイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーは攻撃手段や防御手段を持たず、制限時間内に敵を回避しながらゴールを目指す事でハラハラドキドキを味わえる</t>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュダン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ボウギョ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュダン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有り（落とし穴、吊り橋、シーソー）</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>バシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14歳～16歳で、２Dアクションをしている女子（約○万人）</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョシ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>マンニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既存のゲームでは略奪や殺戮を繰り返す冒険者ばかりで、善良な行いをするゲームをしたいが、同時にハラハラ・ドキドキを味わいたい。</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>リャクダツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サツリク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ボウケンシャ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゼンリョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>アジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -745,16 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残機制　残機0でガメオベラ</t>
-    <rPh sb="0" eb="3">
-      <t>ザンキセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ザンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装案・操作編</t>
     <rPh sb="0" eb="3">
       <t>ジッソウアン</t>
@@ -1298,6 +927,136 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タカダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残機制　残機0でGAMEOVER</t>
+    <rPh sb="0" eb="3">
+      <t>ザンキセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競技性</t>
+    <rPh sb="0" eb="3">
+      <t>キョウギセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒した数×ｎ+体力×ｎ　魔法でとどめを刺すとボーナス　吹っ飛ばして倒すとちょっとボーナス　画面ロックの間にタイマーを設定し、一定時間内に次に進めばボーナス</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="64" eb="69">
+      <t>イッテイジカンナイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面外左にキルゾーンを設定　移動に追いつけなかった敵はそこで消滅する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右の画面外から雑魚を生成　地面判定のある所を移動</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ガメンガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ジメンハンテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー仕様</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1322,19 +1081,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1346,7 +1104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1366,26 +1124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1408,26 +1146,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1904,102 +1622,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2007,90 +1716,78 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2511,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2525,8 +2222,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="21" t="s">
-        <v>49</v>
+      <c r="B1" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2535,294 +2232,310 @@
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="25"/>
+      <c r="B6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="27"/>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>52</v>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>53</v>
+      <c r="C10" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="10.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>55</v>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>54</v>
+      <c r="C15" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>56</v>
+      <c r="C16" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>65</v>
+      <c r="C17" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>57</v>
+      <c r="C18" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>58</v>
+      <c r="C19" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>110</v>
+      <c r="C23" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>111</v>
+      <c r="C24" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>59</v>
+      <c r="C26" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>60</v>
+      <c r="C27" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="10.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>142</v>
+      <c r="B29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="19" t="s">
-        <v>66</v>
+      <c r="C31" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="19" t="s">
-        <v>62</v>
+      <c r="C33" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="12" t="s">
-        <v>63</v>
+      <c r="C35" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C38" s="31" t="s">
-        <v>51</v>
+        <v>106</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C40" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.03" right="0.7" top="0.75" bottom="0.47" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="12" scale="97" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="12" scale="92" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2832,88 +2545,98 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>134</v>
+      <c r="B2" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="64"/>
+      <c r="B3" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="56"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="62"/>
+      <c r="B4" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="62"/>
+      <c r="B5" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="54"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="63"/>
+      <c r="B6" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="55"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>134</v>
+      <c r="B8" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="64"/>
+      <c r="B9" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="56"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="62"/>
+      <c r="B10" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="63"/>
+      <c r="B11" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="55"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>134</v>
+      <c r="B13" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="64"/>
+      <c r="B14" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="56"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="62"/>
+      <c r="B15" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="54"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="63"/>
+      <c r="B16" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="55"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2923,6 +2646,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:4" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G38"/>
   <sheetViews>
@@ -2943,11 +2693,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="21" t="s">
-        <v>67</v>
+      <c r="E1" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="32"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
@@ -2957,387 +2707,387 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="D9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="F9" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="F12" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="D13" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="51"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="E13" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="51"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="57" t="s">
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="42" t="s">
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="57" t="s">
+      <c r="C15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="F15" s="45"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="42" t="s">
+      <c r="C16" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="E16" s="34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="57" t="s">
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C17" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D17" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="51"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="44"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="44"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="46"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="52"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="44"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="47"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="43"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="44"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="45"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="50"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="44"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="51"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="44"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="51"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="44"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="51"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="46"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="52"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="44"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="47"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="43"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="44"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="48"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="44"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="48"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="30"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="44"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="48"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="44"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="49"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="6"/>
     </row>
   </sheetData>
@@ -3350,11 +3100,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -3368,291 +3118,4 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="10.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="12" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>
--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
     <sheet name="敵キャラの仕様" sheetId="4" r:id="rId2"/>
     <sheet name="プレイヤーの仕様" sheetId="6" r:id="rId3"/>
     <sheet name="使用キー" sheetId="3" r:id="rId4"/>
-    <sheet name="イメージ画像" sheetId="5" r:id="rId5"/>
+    <sheet name="画像サイズなど" sheetId="7" r:id="rId5"/>
+    <sheet name="イメージ画像" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">イメージ画像!$A$1:$O$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">イメージ画像!$A$1:$O$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ゲーム概要!$A$1:$C$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">敵キャラの仕様!$A$1:$D$17</definedName>
   </definedNames>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
   <si>
     <t>ゲーム作品名</t>
     <rPh sb="3" eb="5">
@@ -1058,6 +1059,64 @@
     <rPh sb="5" eb="7">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>px</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーモーション画像</t>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一コマ200*200</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1600*1400</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2210,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -3102,6 +3161,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">

--- a/合同制作(企画案).xlsx
+++ b/合同制作(企画案).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
   <si>
     <t>ゲーム作品名</t>
     <rPh sb="3" eb="5">
@@ -1117,6 +1117,24 @@
   </si>
   <si>
     <t>1600*1400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleScreen.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1080*720</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2001,6 +2019,19 @@
     <tableColumn id="4" name="列4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B2:E4" totalsRowShown="0">
+  <autoFilter ref="B2:E4"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="名前"/>
+    <tableColumn id="2" name="内容"/>
+    <tableColumn id="3" name="サイズ"/>
+    <tableColumn id="4" name="詳細"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3161,15 +3192,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
@@ -3211,10 +3242,24 @@
         <v>134</v>
       </c>
     </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
